--- a/project/phase2/Scrum Board.xlsx
+++ b/project/phase2/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campusfctunlpt-my.sharepoint.com/personal/dfg_dias_campusfctunlpt_onmicrosoft_com/Documents/Engenharia Informática/Engenharia informática/ES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DB4A9331-67E5-42AA-9833-7452FF4A5A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CAD96F-9898-4C68-BF3D-752323DC8677}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B8271-166D-449A-AE92-E7C60DC51F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Each member should install the ganttProject on his computer</t>
   </si>
   <si>
-    <t>Tiago, Afonso, and João should analyze the code and identify classes and data Structures important to implement trash.</t>
-  </si>
-  <si>
     <t>Diogo and Afonso should understand how java graphical interfaces work to create to change the export graphical interface.</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Scrum Board</t>
+  </si>
+  <si>
+    <t>Tiago, Pedro, and João should analyze the code and identify classes and data Structures important to implement trash.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -422,20 +422,20 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="105.6328125" customWidth="1"/>
+    <col min="2" max="2" width="105.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,28 +443,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/project/phase2/Scrum Board.xlsx
+++ b/project/phase2/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Master\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B8271-166D-449A-AE92-E7C60DC51F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A32E7A-D6AC-4AF1-B4EE-F7A9ACA7CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Sprint 4</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Tiago, Pedro, and João should analyze the code and identify classes and data Structures important to implement trash.</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Each member should read the code and analize the functionalities already implemented</t>
+  </si>
+  <si>
+    <t>The members should discuss the features</t>
   </si>
 </sst>
 </file>
@@ -101,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,51 +429,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574BCB64-20F7-4A5A-B2B6-667020A6BF47}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="105.6640625" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>

--- a/project/phase2/Scrum Board.xlsx
+++ b/project/phase2/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Master\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A32E7A-D6AC-4AF1-B4EE-F7A9ACA7CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499C3D8-F654-4E96-A335-E311B0A62A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Sprint 4</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>The members should discuss the features</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Diogo and Afonso should implement the "e-mail" feature.</t>
+  </si>
+  <si>
+    <t>Tiago, Pedro and João should create the classes and data strucutres relative to the "trash" feature.</t>
+  </si>
+  <si>
+    <t>Diogo and Afonso should fix bugs related to the "e-mail feature"</t>
+  </si>
+  <si>
+    <t>Tiago, Pedro and João should create the "trash" button and other graphic interface components related to the feature.</t>
+  </si>
+  <si>
+    <t>Tiago, Pedro and João should implement a working simplified version of the "trash" feature.</t>
   </si>
 </sst>
 </file>
@@ -110,11 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,23 +446,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574BCB64-20F7-4A5A-B2B6-667020A6BF47}">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="105.7109375" customWidth="1"/>
+    <col min="2" max="2" width="105.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -453,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -461,15 +478,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -485,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -493,12 +510,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/project/phase2/Scrum Board.xlsx
+++ b/project/phase2/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499C3D8-F654-4E96-A335-E311B0A62A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28EB8A0-3BFB-47CD-9EBE-96A35410FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Sprint 4</t>
   </si>
@@ -81,6 +81,48 @@
   </si>
   <si>
     <t>Tiago, Pedro and João should implement a working simplified version of the "trash" feature.</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 6 </t>
+  </si>
+  <si>
+    <t>Each member should create use cases for the whole project and our features</t>
+  </si>
+  <si>
+    <t>Each member should collect metrics for the project, analyze them and reproduce them graphically</t>
+  </si>
+  <si>
+    <t>Each member should review the artifacs of another member (do not review the same person for different artifacts)</t>
+  </si>
+  <si>
+    <t>Diogo or Afonso should write JUnit tests for the email feature</t>
+  </si>
+  <si>
+    <t>Tiago, João or Pedro should write Junit tests for the trash feature</t>
+  </si>
+  <si>
+    <t>All member should help updating the repository by uploading their artifacts and reviews</t>
+  </si>
+  <si>
+    <t>Diogo and Afonso should bugfix and improve the graphical interface for the email feature. With the help of the other members if needed</t>
+  </si>
+  <si>
+    <t>Tiago, João and Pedro should gradually implement the restore feature, starting with simple taks then tasks with resources</t>
+  </si>
+  <si>
+    <t>Tiago, João and Pedro should improve the graphical interface for the trash feature, not allowing multiple windows to be created at the same time</t>
+  </si>
+  <si>
+    <t>Tiago, João and Pedro should improve the graphical interface for the trash feature, locking the screen to avoid sychronization bugs</t>
+  </si>
+  <si>
+    <t>Tiago, João and Pedro should implement the restore all button in the trash feature so that the user does not need to select all tasks or restore them one by one</t>
+  </si>
+  <si>
+    <t>Tiago, João and Pedro should refactor and produce documentation for their code</t>
   </si>
 </sst>
 </file>
@@ -150,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,23 +488,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574BCB64-20F7-4A5A-B2B6-667020A6BF47}">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="105.7265625" customWidth="1"/>
+    <col min="2" max="2" width="185.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -470,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -478,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -486,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -502,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -510,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -518,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -526,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -534,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -542,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -550,12 +592,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/project/phase2/Scrum Board.xlsx
+++ b/project/phase2/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Ribeiro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28EB8A0-3BFB-47CD-9EBE-96A35410FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC1DCA6-3BCD-4A87-963E-AD5E4E29FAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74F4B266-3A8B-474A-B578-0D138B65883D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Sprint 4</t>
   </si>
@@ -62,9 +59,6 @@
     <t>Each member should read the code and analize the functionalities already implemented</t>
   </si>
   <si>
-    <t>The members should discuss the features</t>
-  </si>
-  <si>
     <t>Sprint 5</t>
   </si>
   <si>
@@ -123,6 +117,24 @@
   </si>
   <si>
     <t>Tiago, João and Pedro should refactor and produce documentation for their code</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Each member of the team should read the code in order to undurstant the functionalities already existent</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>The members should discuss the features to be implemented across the next sprint</t>
+  </si>
+  <si>
+    <t>The team should argue which member would participate in the implementation of each functionality</t>
+  </si>
+  <si>
+    <t>The team should build the document to be submited with the user stories about the features to be implemented.</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574BCB64-20F7-4A5A-B2B6-667020A6BF47}">
-  <dimension ref="A2:B26"/>
+  <dimension ref="A2:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,19 +517,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,119 +537,119 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,55 +657,79 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
